--- a/noise_data_op/noise_Depol_1_to_6_qubits_op.xlsx
+++ b/noise_data_op/noise_Depol_1_to_6_qubits_op.xlsx
@@ -508,38 +508,38 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>96.604</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>96.55</v>
+        <v>99.81</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>96.524</v>
+        <v>99.66</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>96.69</v>
+        <v>99.48999999999999</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>96.66200000000001</v>
+        <v>99.3</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>96.61</v>
+        <v>99.11</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>96.41</v>
+        <v>98.98</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>96.568</v>
+        <v>98.95</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>96.48</v>
+        <v>98.73999999999999</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>96.63800000000001</v>
+        <v>98.67</v>
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>96.648</t>
+          <t>98.3</t>
         </is>
       </c>
     </row>
@@ -548,38 +548,38 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>49.78</v>
+        <v>50.05</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>49.782</v>
+        <v>50.2</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>50.06</v>
+        <v>48.72</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>50.032</v>
+        <v>49.64</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>49.908</v>
+        <v>49.99</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>50.066</v>
+        <v>49.73</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>50.038</v>
+        <v>49.74</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>50.088</v>
+        <v>50.31</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>49.994</v>
+        <v>49.74</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>50.13800000000001</v>
+        <v>50.53</v>
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>49.7</t>
+          <t>50.370000000000005</t>
         </is>
       </c>
     </row>
@@ -669,38 +669,38 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>2.070307647716451</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>2.071465561885033</v>
+        <v>2.003807233744114</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>2.072023538187394</v>
+        <v>2.006823198876179</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>2.068466232288758</v>
+        <v>2.010252286661976</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>2.069065403157394</v>
+        <v>2.014098690835851</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.070179070489597</v>
+        <v>2.017959842599132</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>2.07447360232341</v>
+        <v>2.020610224287735</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>2.071079446607572</v>
+        <v>2.02122283981809</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>2.072968490878939</v>
+        <v>2.02552157180474</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>2.069579254537552</v>
+        <v>2.02695854869768</v>
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>2.069365118781558</t>
+          <t>2.034587995930824</t>
         </is>
       </c>
     </row>
@@ -709,38 +709,38 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>4.017677782241864</v>
+        <v>3.996003996003996</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>4.017516371379213</v>
+        <v>3.98406374501992</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>3.995205753096284</v>
+        <v>4.105090311986864</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>3.997441637352095</v>
+        <v>4.029008863819501</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>4.00737356736395</v>
+        <v>4.000800160032006</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>3.994726960412256</v>
+        <v>4.021717273275689</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>3.99696230864543</v>
+        <v>4.020908725371934</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>3.992972368631209</v>
+        <v>3.975352812562115</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>4.000480057606913</v>
+        <v>4.020908725371934</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>3.988990386533168</v>
+        <v>3.958044725905403</v>
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>4.0241448692152915</t>
+          <t>3.9706174310105222</t>
         </is>
       </c>
     </row>
@@ -830,38 +830,38 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>64.94199999999999</v>
+        <v>94.64</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>65.634</v>
+        <v>92.72</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>65.24600000000001</v>
+        <v>90.88</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>64.592</v>
+        <v>89.22</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>64.86199999999999</v>
+        <v>87.37</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>65.018</v>
+        <v>86.16</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>65.254</v>
+        <v>84.06</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>64.71599999999999</v>
+        <v>83.2</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>64.602</v>
+        <v>80.89</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>65.054</v>
+        <v>80.16</v>
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>64.632</t>
+          <t>78.62</t>
         </is>
       </c>
     </row>
@@ -870,38 +870,38 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>82.824</v>
+        <v>100</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>82.67999999999999</v>
+        <v>98.87</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>82.548</v>
+        <v>97.87</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>82.788</v>
+        <v>96.94</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>82.39800000000001</v>
+        <v>96.22</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>82.59399999999999</v>
+        <v>94.81999999999999</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>82.33200000000001</v>
+        <v>94.81999999999999</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>82.242</v>
+        <v>92.48999999999999</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>82.956</v>
+        <v>92.62</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>82.80199999999999</v>
+        <v>92.62</v>
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>82.416</t>
+          <t>89.64999999999999</t>
         </is>
       </c>
     </row>
@@ -910,38 +910,38 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>73.136</v>
+        <v>84.46000000000001</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>72.97200000000001</v>
+        <v>84.27</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>73.29599999999999</v>
+        <v>83.3</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>73.274</v>
+        <v>82.56999999999999</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>73.18000000000001</v>
+        <v>81.82000000000001</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>72.87599999999999</v>
+        <v>81.34</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>73.34399999999999</v>
+        <v>80.98999999999999</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>72.78999999999999</v>
+        <v>80.25999999999999</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>73.214</v>
+        <v>79.67</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>72.752</v>
+        <v>79.44</v>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>73.416</t>
+          <t>78.75</t>
         </is>
       </c>
     </row>
@@ -950,38 +950,38 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>50</v>
+        <v>50.03999999999999</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>49.796</v>
+        <v>49.87</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>49.864</v>
+        <v>49.01</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>50.17</v>
+        <v>49.48</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>50.152</v>
+        <v>49.04</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>50.042</v>
+        <v>49.62</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>50.054</v>
+        <v>50.45</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>50.28</v>
+        <v>50.37</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>50.156</v>
+        <v>49.59</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>49.624</v>
+        <v>50.3</v>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>49.474000000000004</t>
+          <t>50.14999999999999</t>
         </is>
       </c>
     </row>
@@ -1071,38 +1071,38 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>4.619506636691201</v>
+        <v>3.169907016060862</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>4.570801718621446</v>
+        <v>3.235547886108714</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>4.597983018116053</v>
+        <v>3.301056338028169</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>4.644538023284618</v>
+        <v>3.362474781439139</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>4.625204279855693</v>
+        <v>3.433672885429781</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>4.614106862714941</v>
+        <v>3.481894150417828</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>4.597419315291017</v>
+        <v>3.568879371877231</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>4.635638791025404</v>
+        <v>3.605769230769231</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>4.643819076808768</v>
+        <v>3.708740264556805</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>4.611553478648507</v>
+        <v>3.74251497005988</v>
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>4.641663572224285</t>
+          <t>3.815822945815314</t>
         </is>
       </c>
     </row>
@@ -1111,38 +1111,38 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>2.414759007051096</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>2.418964683115626</v>
+        <v>2.022858298776171</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>2.422832776081795</v>
+        <v>2.043527127822622</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>2.415809054452336</v>
+        <v>2.063131834124201</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>2.427243379693682</v>
+        <v>2.078569943878612</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.421483400731288</v>
+        <v>2.109259649862898</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>2.429189136666181</v>
+        <v>2.109259649862898</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>2.431847474526398</v>
+        <v>2.162395934695643</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>2.410916630502917</v>
+        <v>2.159360829194558</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>2.415400594188546</v>
+        <v>2.159360829194558</v>
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>2.42671325956125</t>
+          <t>2.230897936419409</t>
         </is>
       </c>
     </row>
@@ -1151,38 +1151,38 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>2.734631371691096</v>
+        <v>2.367984844896993</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>2.740777284437867</v>
+        <v>2.373323840037973</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>2.728661864221785</v>
+        <v>2.400960384153661</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>2.729481125638016</v>
+        <v>2.422187235073271</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>2.732987154960372</v>
+        <v>2.444390124663896</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.744387727098085</v>
+        <v>2.458814851241701</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>2.726876090750436</v>
+        <v>2.469440671687863</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>2.747630168979255</v>
+        <v>2.4919013207077</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>2.73171797743601</v>
+        <v>2.51035521526296</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>2.749065317791951</v>
+        <v>2.517623363544814</v>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>2.724201808870001</t>
+          <t>2.5396825396825395</t>
         </is>
       </c>
     </row>
@@ -1191,38 +1191,38 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>4</v>
+        <v>3.996802557953637</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>4.0163868583822</v>
+        <v>4.010427110487267</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>4.010909674314134</v>
+        <v>4.080799836768007</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>3.986446083316723</v>
+        <v>4.042037186742118</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>3.987876854362737</v>
+        <v>4.078303425774878</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>3.996642820031174</v>
+        <v>4.030632809351068</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>3.995684660566588</v>
+        <v>3.964321110009911</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>3.977724741447892</v>
+        <v>3.970617431010522</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>3.987558816492543</v>
+        <v>4.033071183706393</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>4.030307915524746</v>
+        <v>3.976143141153082</v>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4.042527388123054</t>
+          <t>3.988035892323031</t>
         </is>
       </c>
     </row>
@@ -1312,38 +1312,38 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>11.48</v>
+        <v>95.95</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>11.22</v>
+        <v>83.11</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>11.594</v>
+        <v>72.13000000000001</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>11.622</v>
+        <v>63.19</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>11.508</v>
+        <v>55.12</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>11.404</v>
+        <v>48.32</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>11.514</v>
+        <v>43.61</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>11.52</v>
+        <v>35.8</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>11.592</v>
+        <v>36.59</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>11.922</v>
+        <v>30.32</v>
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>11.228</t>
+          <t>28.48</t>
         </is>
       </c>
     </row>
@@ -1352,38 +1352,38 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>23.626</v>
+        <v>94.55</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>21.38</v>
+        <v>84.8</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>21.522</v>
+        <v>77.84999999999999</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>22.578</v>
+        <v>71.31999999999999</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>21.68</v>
+        <v>65.91</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>20.928</v>
+        <v>61.8</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>22.558</v>
+        <v>54.83</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>21.466</v>
+        <v>51.39</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>22.95</v>
+        <v>46.97</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>21.486</v>
+        <v>39.48</v>
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>22.348000000000003</t>
+          <t>41.010000000000005</t>
         </is>
       </c>
     </row>
@@ -1392,38 +1392,38 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>38.792</v>
+        <v>95.12</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>38.43</v>
+        <v>89.8</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>39.926</v>
+        <v>85.55</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>39.524</v>
+        <v>79.80000000000001</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>39.626</v>
+        <v>76.02</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>38.786</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>38.982</v>
+        <v>69.98999999999999</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>39.41</v>
+        <v>66.64</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>38.804</v>
+        <v>64.41</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>38.788</v>
+        <v>59.08</v>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>37.95</t>
+          <t>55.16</t>
         </is>
       </c>
     </row>
@@ -1432,38 +1432,38 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>43.636</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>43.188</v>
+        <v>95.27</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45.018</v>
+        <v>90.23</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>43.396</v>
+        <v>85.94000000000001</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>43.164</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>43.922</v>
+        <v>77.84999999999999</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>44.11</v>
+        <v>73.86</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>44.68</v>
+        <v>71.2</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>43.296</v>
+        <v>66.22</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>43.592</v>
+        <v>63.23</v>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>44.67</t>
+          <t>59.940000000000005</t>
         </is>
       </c>
     </row>
@@ -1472,38 +1472,38 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>46.626</v>
+        <v>95.72</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>47</v>
+        <v>91.31</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>47.156</v>
+        <v>87.02</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>47.05</v>
+        <v>82.53</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>46.858</v>
+        <v>79.25999999999999</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>47.824</v>
+        <v>75.70999999999999</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>46.538</v>
+        <v>71.95</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>46.828</v>
+        <v>70.89</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>47.16</v>
+        <v>66.25</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>47.2</v>
+        <v>64.83</v>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>47.166000000000004</t>
+          <t>61.370000000000005</t>
         </is>
       </c>
     </row>
@@ -1512,38 +1512,38 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>48.928</v>
+        <v>84.3</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>49.134</v>
+        <v>80.30000000000001</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>48.506</v>
+        <v>77.94</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>48.378</v>
+        <v>75.94999999999999</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>48.978</v>
+        <v>72.39999999999999</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>48.51</v>
+        <v>70.3</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>48.524</v>
+        <v>67.97999999999999</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>48.576</v>
+        <v>66.16</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>48.868</v>
+        <v>64.68000000000001</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>48.552</v>
+        <v>61.75000000000001</v>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>48.976</t>
+          <t>60.14000000000001</t>
         </is>
       </c>
     </row>
@@ -1552,38 +1552,38 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>49.516</v>
+        <v>68.15000000000001</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>49.88</v>
+        <v>66.71000000000001</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>49.474</v>
+        <v>64.3</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>49.89</v>
+        <v>63.08000000000001</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>49.774</v>
+        <v>62.82</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>49.418</v>
+        <v>60.79</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>49.734</v>
+        <v>59.92</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>49.312</v>
+        <v>58.8</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>49.246</v>
+        <v>58.15</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>49.94</v>
+        <v>57.17</v>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>49.556</t>
+          <t>55.669999999999995</t>
         </is>
       </c>
     </row>
@@ -1592,38 +1592,38 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>50.354</v>
+        <v>50.56</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>50.164</v>
+        <v>49.87</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>49.998</v>
+        <v>49.85</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>49.806</v>
+        <v>49.24</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>50.376</v>
+        <v>50.33</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>49.876</v>
+        <v>50.49</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>49.838</v>
+        <v>50.2</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>50.19</v>
+        <v>49.85</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>49.754</v>
+        <v>49.29</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>50.344</v>
+        <v>49.53</v>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>49.972</t>
+          <t>49.99</t>
         </is>
       </c>
     </row>
@@ -1713,38 +1713,38 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>34.84320557491289</v>
+        <v>4.168837936425222</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>35.650623885918</v>
+        <v>4.812898568162676</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>34.50060376056581</v>
+        <v>5.545542769998614</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>34.41748408191361</v>
+        <v>6.330115524608324</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>34.75842891901286</v>
+        <v>7.256894049346879</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>35.0754121360926</v>
+        <v>8.278145695364238</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>34.74031613687684</v>
+        <v>9.172208209126348</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>34.72222222222222</v>
+        <v>11.1731843575419</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>34.50655624568668</v>
+        <v>10.93194861984149</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>33.55141754739137</v>
+        <v>13.19261213720317</v>
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>35.62522265764161</t>
+          <t>14.044943820224718</t>
         </is>
       </c>
     </row>
@@ -1753,38 +1753,38 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>12.69787522221282</v>
+        <v>3.172924378635642</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>14.03180542563143</v>
+        <v>3.537735849056604</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>13.93922497909116</v>
+        <v>3.853564547206166</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>13.28727079457879</v>
+        <v>4.206393718452048</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>13.83763837638376</v>
+        <v>4.551661356395084</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>14.3348623853211</v>
+        <v>4.854368932038836</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>13.29905133433815</v>
+        <v>5.47145723144264</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>13.97558930401565</v>
+        <v>5.837711617046118</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>13.0718954248366</v>
+        <v>6.387055567383436</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>13.96258028483664</v>
+        <v>7.598784194528876</v>
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>13.4240200465366</t>
+          <t>7.315288953913679</t>
         </is>
       </c>
     </row>
@@ -1793,38 +1793,38 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>5.155702206640544</v>
+        <v>2.102607232968881</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>5.204267499349466</v>
+        <v>2.2271714922049</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>5.009267144216801</v>
+        <v>2.33781414377557</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>5.060216577269507</v>
+        <v>2.506265664160401</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>5.047191238076011</v>
+        <v>2.630886608787161</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>5.15649976795751</v>
+        <v>2.754820936639118</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>5.130573085013596</v>
+        <v>2.857551078725532</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>5.074854097944684</v>
+        <v>3.001200480192077</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>5.154107823935677</v>
+        <v>3.105107902499612</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>5.156233886769104</v>
+        <v>3.385240352064997</v>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>5.270092226613966</t>
+          <t>3.625815808556925</t>
         </is>
       </c>
     </row>
@@ -1833,38 +1833,38 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>4.583371528096068</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>4.630915995183847</v>
+        <v>2.099296735593576</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>4.442667377493447</v>
+        <v>2.216557685913776</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>4.608719697667988</v>
+        <v>2.327205026762858</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>4.633490872022982</v>
+        <v>2.431315341599805</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>4.553526706434133</v>
+        <v>2.569043031470777</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>4.534119247336205</v>
+        <v>2.707825616030328</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>4.476275738585497</v>
+        <v>2.808988764044944</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>4.619364375461936</v>
+        <v>3.020235578375113</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>4.587997797761057</v>
+        <v>3.163055511624229</v>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4.477277815088426</t>
+          <t>3.33667000333667</t>
         </is>
       </c>
     </row>
@@ -1873,38 +1873,38 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>4.289452236949342</v>
+        <v>2.089427496865859</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>4.25531914893617</v>
+        <v>2.190340597962983</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>4.241241835609467</v>
+        <v>2.298322224775914</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>4.250797024442083</v>
+        <v>2.423361201987156</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>4.268214605830381</v>
+        <v>2.523340903356043</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>4.182000669120107</v>
+        <v>2.641658961828028</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>4.297563281619322</v>
+        <v>2.779708130646282</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>4.270949004868882</v>
+        <v>2.821272393849626</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>4.240882103477524</v>
+        <v>3.018867924528302</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>4.237288135593221</v>
+        <v>3.08499151627333</v>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>4.240342619683671</t>
+          <t>3.258921297050676</t>
         </is>
       </c>
     </row>
@@ -1913,38 +1913,38 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>4.087638979725311</v>
+        <v>2.372479240806643</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>4.070501078682786</v>
+        <v>2.4906600249066</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>4.123201253453181</v>
+        <v>2.566076469078779</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>4.134110546116003</v>
+        <v>2.633311389071758</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>4.083466045979828</v>
+        <v>2.762430939226519</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>4.122861265718408</v>
+        <v>2.844950213371266</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>4.121671750061825</v>
+        <v>2.942041776993233</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>4.117259552042161</v>
+        <v>3.022974607013301</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>4.092657771957109</v>
+        <v>3.092145949288807</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>4.119294776734223</v>
+        <v>3.238866396761133</v>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4.0836327997386475</t>
+          <t>3.3255736614566014</t>
         </is>
       </c>
     </row>
@@ -1953,38 +1953,38 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>4.039098473220777</v>
+        <v>2.93470286133529</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>4.00962309542903</v>
+        <v>2.99805126667666</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>4.042527388123054</v>
+        <v>3.110419906687403</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>4.008819402685909</v>
+        <v>3.170577045022194</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>4.018162092658818</v>
+        <v>3.183699458771092</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>4.047108341090291</v>
+        <v>3.290014805066623</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>4.021393815096312</v>
+        <v>3.337783711615488</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>4.055807916937054</v>
+        <v>3.401360544217687</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>4.06124355277586</v>
+        <v>3.439380911435942</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>4.004805766920304</v>
+        <v>3.498338289312577</v>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>4.035838243603196</t>
+          <t>3.592599245554158</t>
         </is>
       </c>
     </row>
@@ -1993,38 +1993,38 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>3.971879096000318</v>
+        <v>3.955696202531646</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>3.986922892911251</v>
+        <v>4.010427110487267</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>4.000160006400256</v>
+        <v>4.012036108324975</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>4.015580452154359</v>
+        <v>4.061738424045491</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>3.970144513260283</v>
+        <v>3.973773097556129</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>4.009944662763654</v>
+        <v>3.961180431768667</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>4.013002126891127</v>
+        <v>3.98406374501992</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>3.984857541342897</v>
+        <v>4.012036108324975</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>4.01977730433734</v>
+        <v>4.057618178129438</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>3.972668043858255</v>
+        <v>4.037956793862306</v>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4.002241255102858</t>
+          <t>4.000800160032006</t>
         </is>
       </c>
     </row>
@@ -2114,38 +2114,38 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>3.157999999999999</v>
+        <v>99.92</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>3.144</v>
+        <v>43.31</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>3.074</v>
+        <v>19.69</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>3.094</v>
+        <v>11.39</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>3.094</v>
+        <v>8.129999999999999</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3.118</v>
+        <v>4.82</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>3.01</v>
+        <v>4.79</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>3.152</v>
+        <v>3.6</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>3.148</v>
+        <v>3.96</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>2.96</v>
+        <v>3.51</v>
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>3.118</t>
+          <t>3.27</t>
         </is>
       </c>
     </row>
@@ -2154,38 +2154,38 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>6.262</v>
+        <v>96.19</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>6.464</v>
+        <v>49.71</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>6.222</v>
+        <v>26.42</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>6.178</v>
+        <v>17.51</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>6.324000000000001</v>
+        <v>11.25</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>6.172</v>
+        <v>8.49</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>6.524000000000001</v>
+        <v>8.41</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>6.196</v>
+        <v>6.98</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>6.348</v>
+        <v>7.06</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>6.206</v>
+        <v>6.859999999999999</v>
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>6.354</t>
+          <t>6.460000000000001</t>
         </is>
       </c>
     </row>
@@ -2194,38 +2194,38 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>9.542</v>
+        <v>99.95</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>9.305999999999999</v>
+        <v>61.05</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>9.31</v>
+        <v>38.34</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>9.342000000000001</v>
+        <v>29.18</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>9.204000000000001</v>
+        <v>21.99</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>9.506</v>
+        <v>15.11</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>9.372</v>
+        <v>14.87</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>9.382</v>
+        <v>12.65</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>9.353999999999999</v>
+        <v>10.98</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>9.516</v>
+        <v>10.87</v>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>9.478</t>
+          <t>9.84</t>
         </is>
       </c>
     </row>
@@ -2234,38 +2234,38 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>12.466</v>
+        <v>94.73</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>12.416</v>
+        <v>57.4</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>12.438</v>
+        <v>40.58</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>12.708</v>
+        <v>27.8</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>12.682</v>
+        <v>20.58</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>12.54</v>
+        <v>19.02</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>12.628</v>
+        <v>15.06</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>12.328</v>
+        <v>14.69</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>12.994</v>
+        <v>14.78</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>12.594</v>
+        <v>13.51</v>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>12.531999999999998</t>
+          <t>13.020000000000001</t>
         </is>
       </c>
     </row>
@@ -2274,38 +2274,38 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>16.02</v>
+        <v>87.78</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>15.824</v>
+        <v>67.95</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>15.82</v>
+        <v>53.02</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>15.906</v>
+        <v>43.62</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>16.144</v>
+        <v>33.66</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>15.752</v>
+        <v>30.09</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>15.892</v>
+        <v>26.14</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>15.704</v>
+        <v>23.47</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>15.534</v>
+        <v>21.04</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>16.02</v>
+        <v>19.39</v>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>15.644</t>
+          <t>18.86</t>
         </is>
       </c>
     </row>
@@ -2314,38 +2314,38 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>18.488</v>
+        <v>94.63</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>18.598</v>
+        <v>74.11999999999999</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>18.644</v>
+        <v>58.22000000000001</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>19.03</v>
+        <v>47.09</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>18.934</v>
+        <v>38.44</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>18.968</v>
+        <v>33.77</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>18.81</v>
+        <v>29.82</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>19.01</v>
+        <v>26.23</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>19.16</v>
+        <v>24.03</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>19.076</v>
+        <v>23.52</v>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>18.83</t>
+          <t>22.13</t>
         </is>
       </c>
     </row>
@@ -2354,38 +2354,38 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>22.008</v>
+        <v>98.87</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>21.92</v>
+        <v>77.45999999999999</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>21.576</v>
+        <v>60.89</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>22.068</v>
+        <v>52.58000000000001</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>22.004</v>
+        <v>41.87</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>22.32</v>
+        <v>36.01</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>22.36</v>
+        <v>31.53</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>22.312</v>
+        <v>29.68</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>22.32</v>
+        <v>27.25</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>22.258</v>
+        <v>26.16</v>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>21.986</t>
+          <t>26.26</t>
         </is>
       </c>
     </row>
@@ -2394,38 +2394,38 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>24.86</v>
+        <v>100</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>25.302</v>
+        <v>78.51000000000001</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>24.92</v>
+        <v>63.54</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>25.228</v>
+        <v>52.11</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>25.234</v>
+        <v>44.52</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>25.214</v>
+        <v>39.15</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>25.022</v>
+        <v>35.70999999999999</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>25.246</v>
+        <v>32.97</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>25.528</v>
+        <v>31.56</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>25.21</v>
+        <v>29.41</v>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>25.196</t>
+          <t>27.500000000000004</t>
         </is>
       </c>
     </row>
@@ -2434,38 +2434,38 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>27.994</v>
+        <v>98.91</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>28.278</v>
+        <v>78.45</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>28.08</v>
+        <v>63.36000000000001</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>28.366</v>
+        <v>53.22</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>28.382</v>
+        <v>47.03</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>28.3</v>
+        <v>41.63</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>28.23</v>
+        <v>37.69</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>28.23</v>
+        <v>34.83</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>27.944</v>
+        <v>33.1</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>27.984</v>
+        <v>31.25</v>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>27.983999999999998</t>
+          <t>30.220000000000002</t>
         </is>
       </c>
     </row>
@@ -2474,38 +2474,38 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>31.498</v>
+        <v>95.91</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>31.42</v>
+        <v>76.7</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>31.598</v>
+        <v>64.07000000000001</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>31.434</v>
+        <v>54.26</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>31.384</v>
+        <v>47.7</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>31.438</v>
+        <v>44.83</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>31.51</v>
+        <v>39.68</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>31.624</v>
+        <v>37.08</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>31.194</v>
+        <v>35.3</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>31.434</v>
+        <v>34.37</v>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>31.422</t>
+          <t>34.449999999999996</t>
         </is>
       </c>
     </row>
@@ -2514,38 +2514,38 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>34.48999999999999</v>
+        <v>91.06</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>34.31</v>
+        <v>74.56</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>34.43</v>
+        <v>63.05</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>34.258</v>
+        <v>54.79000000000001</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>34.288</v>
+        <v>48.52</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>34.554</v>
+        <v>43.82</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>34.214</v>
+        <v>41.3</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>34.738</v>
+        <v>39.06</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>34.672</v>
+        <v>38.82</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>34.35599999999999</v>
+        <v>37.27</v>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>34.260000000000005</t>
+          <t>35.6</t>
         </is>
       </c>
     </row>
@@ -2554,38 +2554,38 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>37.362</v>
+        <v>84.66</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>37.636</v>
+        <v>71.86</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>37.756</v>
+        <v>61.17</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>37.896</v>
+        <v>53.63</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>37.424</v>
+        <v>49.17</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>37.276</v>
+        <v>45.72</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>37.832</v>
+        <v>43.64</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>37.75</v>
+        <v>42.64</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>37.612</v>
+        <v>39.84</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>37.344</v>
+        <v>40.28</v>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>37.504</t>
+          <t>38.769999999999996</t>
         </is>
       </c>
     </row>
@@ -2594,38 +2594,38 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>40.658</v>
+        <v>76.99000000000001</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>40.468</v>
+        <v>66.19</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>40.942</v>
+        <v>58.54000000000001</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>40.404</v>
+        <v>52.87</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>41.04</v>
+        <v>49.64</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>40.92</v>
+        <v>47.29</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>40.702</v>
+        <v>45.09</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>40.368</v>
+        <v>43.59</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>40.636</v>
+        <v>43.82</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>40.284</v>
+        <v>42.38</v>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>40.73</t>
+          <t>42.08</t>
         </is>
       </c>
     </row>
@@ -2634,38 +2634,38 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>43.818</v>
+        <v>68.17999999999999</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>43.37</v>
+        <v>61.49</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>43.54</v>
+        <v>56.14</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>43.868</v>
+        <v>52.43</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>43.924</v>
+        <v>50.45</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>43.894</v>
+        <v>48.49</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>43.816</v>
+        <v>46.86</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>44.17</v>
+        <v>46.43</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>43.534</v>
+        <v>44.59</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>43.792</v>
+        <v>45.18</v>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>43.730000000000004</t>
+          <t>44.76</t>
         </is>
       </c>
     </row>
@@ -2674,38 +2674,38 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>46.84</v>
+        <v>59.21999999999999</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>46.832</v>
+        <v>56.48</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>46.866</v>
+        <v>53.14</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>47.13200000000001</v>
+        <v>50.71</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>47.044</v>
+        <v>50.16</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>46.944</v>
+        <v>49.22000000000001</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>47.054</v>
+        <v>48.19</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>46.7</v>
+        <v>47.73</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>46.804</v>
+        <v>47.54</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>47.122</v>
+        <v>47.77</v>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>46.758</t>
+          <t>47.839999999999996</t>
         </is>
       </c>
     </row>
@@ -2714,38 +2714,38 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>49.902</v>
+        <v>50.62</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>50.052</v>
+        <v>49.68</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>50.046</v>
+        <v>50.26000000000001</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>50.166</v>
+        <v>49.81</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>50.022</v>
+        <v>49.15</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>49.878</v>
+        <v>48.93</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>50.18</v>
+        <v>50.29</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>49.832</v>
+        <v>49.08</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>50.008</v>
+        <v>49.5</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>50.222</v>
+        <v>49.28</v>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>49.919999999999995</t>
+          <t>50.839999999999996</t>
         </is>
       </c>
     </row>
@@ -2835,38 +2835,38 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>158.3280557314756</v>
+        <v>5.00400320256205</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>159.0330788804071</v>
+        <v>11.54467790348649</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>162.6545217957059</v>
+        <v>25.39360081259522</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>161.6031027795734</v>
+        <v>43.89815627743634</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>161.6031027795734</v>
+        <v>61.50061500615006</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>160.3592046183451</v>
+        <v>103.7344398340249</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>166.1129568106312</v>
+        <v>104.384133611691</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>158.6294416243655</v>
+        <v>138.8888888888889</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>158.8310038119441</v>
+        <v>126.2626262626263</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>168.9189189189189</v>
+        <v>142.4501424501424</v>
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>160.3592046183451</t>
+          <t>152.90519877675843</t>
         </is>
       </c>
     </row>
@@ -2875,38 +2875,38 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>63.87735547748324</v>
+        <v>4.158436427903109</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>61.88118811881188</v>
+        <v>8.046670690002012</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>64.28801028608164</v>
+        <v>15.14004542013626</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>64.74587245063127</v>
+        <v>22.84408909194746</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>63.25110689437065</v>
+        <v>35.55555555555556</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>64.80881399870383</v>
+        <v>47.11425206124853</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>61.31207847946045</v>
+        <v>47.56242568370987</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>64.55777921239509</v>
+        <v>57.30659025787966</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>63.0119722747322</v>
+        <v>56.657223796034</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>64.45375443119562</v>
+        <v>58.30903790087464</v>
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>62.95247088448222</t>
+          <t>61.919504643962846</t>
         </is>
       </c>
     </row>
@@ -2915,38 +2915,38 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>31.43994969608049</v>
+        <v>3.001500750375188</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>32.23726627981947</v>
+        <v>4.914004914004914</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>32.2234156820623</v>
+        <v>7.82472613458529</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>32.11303789338471</v>
+        <v>10.28101439342015</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>32.59452411994785</v>
+        <v>13.64256480218281</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>31.55901535872081</v>
+        <v>19.85440105890139</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>32.01024327784891</v>
+        <v>20.17484868863484</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>31.97612449371136</v>
+        <v>23.71541501976284</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>32.07184092366901</v>
+        <v>27.3224043715847</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>31.52585119798235</v>
+        <v>27.59889604415823</v>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>31.65224730955898</t>
+          <t>30.487804878048777</t>
         </is>
       </c>
     </row>
@@ -2955,38 +2955,38 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>24.0654580458848</v>
+        <v>3.166895386889053</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>24.16237113402062</v>
+        <v>5.226480836236933</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>24.1196333815726</v>
+        <v>7.392804337111878</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>23.60717658168083</v>
+        <v>10.79136690647482</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>23.65557483046837</v>
+        <v>14.57725947521866</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>23.92344497607656</v>
+        <v>15.77287066246057</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>23.75673107380424</v>
+        <v>19.9203187250996</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>24.33484750162232</v>
+        <v>20.42205582028591</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>23.08757888256119</v>
+        <v>20.29769959404601</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>23.82086707956169</v>
+        <v>22.20577350111029</v>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>23.938716884774976</t>
+          <t>23.04147465437788</t>
         </is>
       </c>
     </row>
@@ -2995,38 +2995,38 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>12.48439450686642</v>
+        <v>2.27842333105491</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>12.63902932254803</v>
+        <v>2.943340691685062</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>12.64222503160556</v>
+        <v>3.772161448509997</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>12.57387149503332</v>
+        <v>4.585052728106374</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>12.38850346878097</v>
+        <v>5.941770647653001</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>12.69680040629761</v>
+        <v>6.646726487205052</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>12.58494840171155</v>
+        <v>7.651109410864575</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>12.73560876209883</v>
+        <v>8.52151682999574</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>12.87498390627012</v>
+        <v>9.505703422053232</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>12.48439450686642</v>
+        <v>10.31459515214028</v>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>12.784454103809768</t>
+          <t>10.604453870625663</t>
         </is>
       </c>
     </row>
@@ -3035,38 +3035,38 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>10.81782778018174</v>
+        <v>2.113494663425975</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>10.75384449940854</v>
+        <v>2.698327037236913</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>10.72731173567904</v>
+        <v>3.435245620061834</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>10.50972149238045</v>
+        <v>4.247186239116585</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>10.56300834477659</v>
+        <v>5.202913631633715</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>10.54407423028258</v>
+        <v>5.922416345869115</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>10.63264221158958</v>
+        <v>6.70690811535882</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>10.52077853761178</v>
+        <v>7.624857033930613</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>10.4384133611691</v>
+        <v>8.322929671244278</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>10.48437827636821</v>
+        <v>8.503401360544217</v>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>10.621348911311737</t>
+          <t>9.03750564844103</t>
         </is>
       </c>
     </row>
@@ -3075,38 +3075,38 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>9.087604507451836</v>
+        <v>2.022858298776171</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>9.124087591240876</v>
+        <v>2.581977794990963</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>9.269558769002597</v>
+        <v>3.284611594678929</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>9.06289650172195</v>
+        <v>3.803727653100038</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>9.089256498818395</v>
+        <v>4.776689754000477</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>8.960573476702509</v>
+        <v>5.55401277422938</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>8.944543828264759</v>
+        <v>6.343165239454488</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>8.963786303334528</v>
+        <v>6.738544474393531</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>8.960573476702509</v>
+        <v>7.339449541284404</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>8.985533291400845</v>
+        <v>7.64525993883792</v>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>9.096697898662786</t>
+          <t>7.616146230007616</t>
         </is>
       </c>
     </row>
@@ -3115,38 +3115,38 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>8.045052292839904</v>
+        <v>2</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>7.904513477195478</v>
+        <v>2.547446185199337</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>8.025682182985554</v>
+        <v>3.147623544224111</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>7.927699381639448</v>
+        <v>3.838034926117828</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>7.92581437742728</v>
+        <v>4.492362982929021</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>7.932101213611486</v>
+        <v>5.108556832694764</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>7.992966189753018</v>
+        <v>5.600672080649678</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>7.922047056959518</v>
+        <v>6.066120715802245</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>7.834534628643058</v>
+        <v>6.337135614702155</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>7.933359777865927</v>
+        <v>6.800408024481469</v>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7.937767899666614</t>
+          <t>7.2727272727272725</t>
         </is>
       </c>
     </row>
@@ -3155,38 +3155,38 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>7.144388083160678</v>
+        <v>2.022040238600748</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>7.072635971426551</v>
+        <v>2.549394518801785</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>7.122507122507122</v>
+        <v>3.156565656565657</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>7.050694493407601</v>
+        <v>3.757985719654265</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>7.046719751955465</v>
+        <v>4.25260472039124</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>7.067137809187279</v>
+        <v>4.804227720393946</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>7.084661707403472</v>
+        <v>5.306447333510215</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>7.084661707403472</v>
+        <v>5.742176284811944</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>7.1571714858288</v>
+        <v>6.042296072507553</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>7.14694110920526</v>
+        <v>6.4</v>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>7.14694110920526</t>
+          <t>6.618133686300463</t>
         </is>
       </c>
     </row>
@@ -3195,38 +3195,38 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>6.349609499015811</v>
+        <v>2.085288291106246</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>6.365372374283895</v>
+        <v>2.607561929595828</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>6.329514526235838</v>
+        <v>3.121585765568909</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>6.362537379907107</v>
+        <v>3.685956505713233</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>6.37267397399949</v>
+        <v>4.19287211740042</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>6.361727845282779</v>
+        <v>4.461298237787196</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>6.34719136781974</v>
+        <v>5.040322580645161</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>6.324310650139135</v>
+        <v>5.393743257820928</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>6.411489388985061</v>
+        <v>5.665722379603399</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>6.362537379907107</v>
+        <v>5.819028222286878</v>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6.364967220418815</t>
+          <t>5.805515239477503</t>
         </is>
       </c>
     </row>
@@ -3235,38 +3235,38 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>5.798782255726297</v>
+        <v>2.196354052273227</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>5.829204313611192</v>
+        <v>2.682403433476394</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>5.808887598024978</v>
+        <v>3.17208564631245</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>5.838052425710783</v>
+        <v>3.650301149844862</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>5.832944470368642</v>
+        <v>4.122011541632316</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>5.788041905423396</v>
+        <v>4.564125969876769</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>5.845560296954463</v>
+        <v>4.842615012106537</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>5.757383844780931</v>
+        <v>5.120327700972863</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>5.768343331795108</v>
+        <v>5.151983513652756</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>5.821399464431249</v>
+        <v>5.366246310705661</v>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>5.837711617046118</t>
+          <t>5.617977528089888</t>
         </is>
       </c>
     </row>
@@ -3275,38 +3275,38 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>5.353032492907232</v>
+        <v>2.362390739428301</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>5.314061005420342</v>
+        <v>2.783189535207347</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>5.297171310520183</v>
+        <v>3.269576589831617</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>5.277601857715854</v>
+        <v>3.729256013425322</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>5.344164172723386</v>
+        <v>4.067520846044336</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>5.365382551775942</v>
+        <v>4.374453193350831</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>5.286529921759358</v>
+        <v>4.582951420714941</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>5.298013245033113</v>
+        <v>4.690431519699812</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>5.317451877060512</v>
+        <v>5.020080321285141</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>5.355612682090832</v>
+        <v>4.965243296921549</v>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5.332764505119454</t>
+          <t>5.158627805003869</t>
         </is>
       </c>
     </row>
@@ -3315,38 +3315,38 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>4.919081115647597</v>
+        <v>2.59773996622938</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>4.942176534545814</v>
+        <v>3.021604471974618</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>4.884959210590592</v>
+        <v>3.41646737273659</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>4.95000495000495</v>
+        <v>3.782863627766219</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>4.873294346978557</v>
+        <v>4.029008863819501</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>4.887585532746823</v>
+        <v>4.229223937407486</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>4.913763451427449</v>
+        <v>4.435573297848747</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>4.954419342053112</v>
+        <v>4.588208304657031</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>4.92174426616793</v>
+        <v>4.564125969876769</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>4.964750273061265</v>
+        <v>4.719207173194904</v>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>4.910385465259023</t>
+          <t>4.752851711026616</t>
         </is>
       </c>
     </row>
@@ -3355,38 +3355,38 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>4.564334291843535</v>
+        <v>2.933411557641537</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>4.611482591653217</v>
+        <v>3.252561392096276</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>4.593477262287552</v>
+        <v>3.562522265764161</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>4.55913194127838</v>
+        <v>3.814609956131986</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>4.553319369820599</v>
+        <v>3.964321110009911</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>4.556431402925229</v>
+        <v>4.124561765312436</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>4.56454263282819</v>
+        <v>4.268032437046521</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>4.527960153950645</v>
+        <v>4.307559767391773</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>4.594110350530619</v>
+        <v>4.485310607759588</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>4.567044208987943</v>
+        <v>4.426737494466578</v>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>4.5735193231191404</t>
+          <t>4.468275245755138</t>
         </is>
       </c>
     </row>
@@ -3395,38 +3395,38 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>4.269854824935952</v>
+        <v>3.377237419790611</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>4.270584215920738</v>
+        <v>3.541076487252125</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>4.267486023983271</v>
+        <v>3.763643206624012</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>4.243401510650938</v>
+        <v>3.94399526720568</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>4.251339171839129</v>
+        <v>3.987240829346093</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>4.260395364689844</v>
+        <v>4.063388866314506</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>4.25043566965614</v>
+        <v>4.150238638721727</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>4.282655246252677</v>
+        <v>4.190236748376283</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>4.27313904794462</v>
+        <v>4.206983592763988</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>4.244302024532066</v>
+        <v>4.186728072011723</v>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>4.277342914581462</t>
+          <t>4.1806020066889635</t>
         </is>
       </c>
     </row>
@@ -3435,38 +3435,38 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>4.007855396577291</v>
+        <v>3.951007506914263</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>3.995844321905218</v>
+        <v>4.025764895330113</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>3.996323382488111</v>
+        <v>3.979307600477517</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>3.986763943706893</v>
+        <v>4.015257980325236</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>3.998240774059414</v>
+        <v>4.069175991861648</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>4.009783872649265</v>
+        <v>4.087471898630697</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>3.985651654045436</v>
+        <v>3.976933784052496</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>4.013485310643763</v>
+        <v>4.074979625101874</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>3.999360102383618</v>
+        <v>4.040404040404041</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>3.982318505834097</v>
+        <v>4.058441558441558</v>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>4.006410256410256</t>
+          <t>3.933910306845004</t>
         </is>
       </c>
     </row>

--- a/noise_data_op/noise_Depol_1_to_6_qubits_op.xlsx
+++ b/noise_data_op/noise_Depol_1_to_6_qubits_op.xlsx
@@ -15,6 +15,8 @@
     <sheet name="4qbit_oracle" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="5 qubits" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="5qbit_oracle" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="6 qubits" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="6qbit_oracle" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -588,6 +590,1266 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Number of Marked Items</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>0.0005 noise level oracle calls</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>0.001 noise level oracle calls</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>0.0015 noise level oracle calls</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>0.002 noise level oracle calls</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>0.0025 noise level oracle calls</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>0.003 noise level oracle calls</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>0.0035 noise level oracle calls</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>0.004 noise level oracle calls</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>0.0045000000000000005 noise level oracle calls</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>0.005 noise level oracle calls</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>209.7902097902098</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>310.880829015544</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>389.6103896103896</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>397.3509933774834</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>419.5804195804196</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>348.8372093023256</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>400</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>355.0295857988166</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>359.2814371257485</v>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>387.0967741935484</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>47.7326968973747</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>116.9590643274854</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>132.4503311258278</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>117.3020527859238</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>121.9512195121951</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>129.8701298701299</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>144.4043321299639</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>135.5932203389831</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <v>115.2737752161383</v>
+      </c>
+      <c r="K3" s="2" t="inlineStr">
+        <is>
+          <t>125.78616352201257</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>41.9287211740042</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>77.51937984496124</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>81.9672131147541</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>86.76789587852494</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>84.03361344537815</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>88.30022075055187</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>84.38818565400844</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>86.58008658008659</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>95.4653937947494</v>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>82.81573498964804</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>22.33804914370812</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>37.68844221105528</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>48.07692307692308</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>47.54358161648177</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>44.31314623338257</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>46.72897196261682</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>48.54368932038835</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>45.94180704441041</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>43.41534008683068</v>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>50.505050505050505</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>20.44989775051125</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>33.003300330033</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>36.4963503649635</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>37.9746835443038</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>38.70967741935483</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>40.16064257028113</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>39.21568627450981</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>37.08281829419036</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <v>37.08281829419036</v>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>39.0625</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>17.75147928994083</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>29.91026919242273</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>31.91489361702128</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>31.94888178913738</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>32.32758620689656</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>31.88097768331562</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>32.18884120171673</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>32.15434083601286</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>32.11991434689507</v>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>32.46753246753247</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>17.6678445229682</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>26.17801047120419</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>26.80965147453083</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>26.80965147453083</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>27.67527675276753</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>27.2975432211101</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>27.8035217794254</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>26.06429192006951</v>
+      </c>
+      <c r="J8" s="2" t="n">
+        <v>27.6243093922652</v>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>28.19548872180451</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>16.95873374788016</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>22.28826151560179</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>24.57002457002457</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>24.39024390243902</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>24.77291494632535</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>24.79338842975206</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>24.15458937198068</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <v>24.65078060805259</v>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>23.84737678855326</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>15.53599171413775</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>21.08222066057625</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>20.79002079002079</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>20.77562326869806</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>22.07505518763797</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>20.51983584131327</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>21.26151665485472</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>21.03786816269285</v>
+      </c>
+      <c r="J10" s="2" t="n">
+        <v>21.73913043478261</v>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>21.551724137931032</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>6.188118811881188</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>10.24065540194572</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>12.21001221001221</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>12.71455816910362</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>12.75510204081633</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>12.62626262626263</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>13.57773251866938</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>12.75510204081633</v>
+      </c>
+      <c r="J11" s="2" t="n">
+        <v>12.30012300123001</v>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>12.714558169103624</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>5.922416345869115</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>9.16590284142988</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>11.12966054535337</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>11.89767995240928</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>11.5473441108545</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>11.66861143523921</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>11.47446930579461</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <v>11.91895113230036</v>
+      </c>
+      <c r="J12" s="2" t="n">
+        <v>11.40250855188141</v>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>11.527377521613833</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>5.58191459670667</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>8.78348704435661</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>10.13171225937184</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>10.5318588730911</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>10.48767697954903</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>10.6439595529537</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>10.92299290005462</v>
+      </c>
+      <c r="I13" s="2" t="n">
+        <v>10.89324618736383</v>
+      </c>
+      <c r="J13" s="2" t="n">
+        <v>10.21972406745018</v>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>10.672358591248665</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>5.421523448088913</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>8.565310492505354</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>9.332711152589829</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>10.11633788568538</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>9.930486593843098</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>10.0351229302559</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>9.704027171276079</v>
+      </c>
+      <c r="I14" s="2" t="n">
+        <v>9.896091044037606</v>
+      </c>
+      <c r="J14" s="2" t="n">
+        <v>10.06542526421741</v>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>9.784735812133073</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>5.06842372022301</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>7.760962359332558</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>8.908685968819599</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>9.216589861751151</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>9.233610341643583</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>9.276437847866418</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>9.341429238673516</v>
+      </c>
+      <c r="I15" s="2" t="n">
+        <v>9.004952723998199</v>
+      </c>
+      <c r="J15" s="2" t="n">
+        <v>9.16590284142988</v>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>9.573958831977022</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>4.982561036372696</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>7.307270734380709</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>8.064516129032258</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>8.658008658008658</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>8.361204013377927</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>8.760402978537012</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>8.453085376162299</v>
+      </c>
+      <c r="I16" s="2" t="n">
+        <v>8.550662676357417</v>
+      </c>
+      <c r="J16" s="2" t="n">
+        <v>8.413967185527977</v>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>8.576329331046312</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>4.820438659918053</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>6.868131868131868</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>7.874015748031496</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>7.736943907156673</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>8.143322475570033</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>8.103727714748784</v>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>8.244023083264633</v>
+      </c>
+      <c r="I17" s="2" t="n">
+        <v>7.917656373713381</v>
+      </c>
+      <c r="J17" s="2" t="n">
+        <v>7.993605115907274</v>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>8.016032064128256</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>4.636068613815485</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>6.402048655569782</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>7.171029042667623</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>7.627765064836003</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>7.459903021260724</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>7.328691828508611</v>
+      </c>
+      <c r="H18" s="2" t="n">
+        <v>7.434944237918216</v>
+      </c>
+      <c r="I18" s="2" t="n">
+        <v>7.590132827324478</v>
+      </c>
+      <c r="J18" s="2" t="n">
+        <v>7.454342154304882</v>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>7.462686567164179</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>4.597701149425287</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>6.313131313131313</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>7.037297677691766</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>7.275372862859221</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>7.044734061289186</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>6.858710562414266</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>7.228044813877846</v>
+      </c>
+      <c r="I19" s="2" t="n">
+        <v>7.002801120448179</v>
+      </c>
+      <c r="J19" s="2" t="n">
+        <v>7.135212272565108</v>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>7.097232079488999</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>4.487323311644604</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>6.116207951070336</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>6.587615283267457</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>6.570302233902759</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>6.75219446320054</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>6.811989100817439</v>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>6.802721088435374</v>
+      </c>
+      <c r="I20" s="2" t="n">
+        <v>6.700167504187605</v>
+      </c>
+      <c r="J20" s="2" t="n">
+        <v>6.772773450728073</v>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>6.6467264872050515</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>4.47127207690588</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>5.792064871126557</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>6.315124723713294</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>6.321112515802781</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>6.299212598425197</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>6.404098623118796</v>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>6.265664160401003</v>
+      </c>
+      <c r="I21" s="2" t="n">
+        <v>6.395906619763352</v>
+      </c>
+      <c r="J21" s="2" t="n">
+        <v>6.508298080052066</v>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>6.538084341288003</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>4.299226139294927</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>5.680204487361545</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>5.908419497784343</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>5.963029218843173</v>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>5.924170616113744</v>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>6.108735491753207</v>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>6.195786864931846</v>
+      </c>
+      <c r="I22" s="2" t="n">
+        <v>6.038647342995169</v>
+      </c>
+      <c r="J22" s="2" t="n">
+        <v>6.042296072507553</v>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>6.099420555047271</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>4.311273981461522</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>5.35475234270415</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>5.824111822947001</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>5.73394495412844</v>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>5.979073243647234</v>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>5.752085130859936</v>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>5.822416302765648</v>
+      </c>
+      <c r="I23" s="2" t="n">
+        <v>5.925925925925926</v>
+      </c>
+      <c r="J23" s="2" t="n">
+        <v>5.915409642117717</v>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>5.897965202005309</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>4.18848167539267</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>5.128205128205129</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>5.530973451327434</v>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>5.567928730512249</v>
+      </c>
+      <c r="F24" s="2" t="n">
+        <v>5.675368898978434</v>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>5.55401277422938</v>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>5.520287054926857</v>
+      </c>
+      <c r="I24" s="2" t="n">
+        <v>5.629045876723895</v>
+      </c>
+      <c r="J24" s="2" t="n">
+        <v>5.614823133071308</v>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>5.583472920156337</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>4.123711340206185</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>4.965243296921549</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>5.277044854881266</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>5.411255411255412</v>
+      </c>
+      <c r="F25" s="2" t="n">
+        <v>5.379236148466918</v>
+      </c>
+      <c r="G25" s="2" t="n">
+        <v>5.337603416066186</v>
+      </c>
+      <c r="H25" s="2" t="n">
+        <v>5.254860746190226</v>
+      </c>
+      <c r="I25" s="2" t="n">
+        <v>5.260389268805891</v>
+      </c>
+      <c r="J25" s="2" t="n">
+        <v>5.387931034482759</v>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>5.265929436545551</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>4.125412541254126</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>4.928536224741252</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>4.967709885742672</v>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>5.070993914807302</v>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>5.067139599695972</v>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>5.188067444876784</v>
+      </c>
+      <c r="H26" s="2" t="n">
+        <v>5.078720162519045</v>
+      </c>
+      <c r="I26" s="2" t="n">
+        <v>5.103342689461598</v>
+      </c>
+      <c r="J26" s="2" t="n">
+        <v>5.137426149499101</v>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>5.223295899712719</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>4.118616144975288</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>4.720320981826764</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>4.926108374384237</v>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>4.928536224741252</v>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>4.922471080482402</v>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>4.868549172346641</v>
+      </c>
+      <c r="H27" s="2" t="n">
+        <v>4.906771344455349</v>
+      </c>
+      <c r="I27" s="2" t="n">
+        <v>4.965243296921549</v>
+      </c>
+      <c r="J27" s="2" t="n">
+        <v>4.968944099378882</v>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>4.9127978383689515</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>4.184975936388366</v>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>4.565167769915544</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>4.665267086540704</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>4.627487274409996</v>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>4.82509047044632</v>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>4.763038818766373</v>
+      </c>
+      <c r="H28" s="2" t="n">
+        <v>4.766444232602479</v>
+      </c>
+      <c r="I28" s="2" t="n">
+        <v>4.8344210780759</v>
+      </c>
+      <c r="J28" s="2" t="n">
+        <v>4.747211013529552</v>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>4.7236655644780345</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>4.096681687832856</v>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>4.392708104546453</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>4.524886877828054</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>4.612546125461255</v>
+      </c>
+      <c r="F29" s="2" t="n">
+        <v>4.492362982929021</v>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>4.51773209848656</v>
+      </c>
+      <c r="H29" s="2" t="n">
+        <v>4.509582863585118</v>
+      </c>
+      <c r="I29" s="2" t="n">
+        <v>4.571428571428571</v>
+      </c>
+      <c r="J29" s="2" t="n">
+        <v>4.581901489117984</v>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>4.677268475210477</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>4.037141703673799</v>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>4.300150505267684</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>4.369674459252786</v>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>4.47127207690588</v>
+      </c>
+      <c r="F30" s="2" t="n">
+        <v>4.329004329004329</v>
+      </c>
+      <c r="G30" s="2" t="n">
+        <v>4.336513443191674</v>
+      </c>
+      <c r="H30" s="2" t="n">
+        <v>4.457321149988856</v>
+      </c>
+      <c r="I30" s="2" t="n">
+        <v>4.505519261094841</v>
+      </c>
+      <c r="J30" s="2" t="n">
+        <v>4.432624113475177</v>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>4.41306266548985</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>4.012036108324975</v>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>4.184975936388366</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>4.372540445999126</v>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>4.256224728665673</v>
+      </c>
+      <c r="F31" s="2" t="n">
+        <v>4.193751310547285</v>
+      </c>
+      <c r="G31" s="2" t="n">
+        <v>4.186728072011723</v>
+      </c>
+      <c r="H31" s="2" t="n">
+        <v>4.207868714496108</v>
+      </c>
+      <c r="I31" s="2" t="n">
+        <v>4.334633723450368</v>
+      </c>
+      <c r="J31" s="2" t="n">
+        <v>4.133939644481191</v>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>4.1928721174004195</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>3.993610223642173</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>4.141644232760406</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>4.179728317659352</v>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>4.13564929693962</v>
+      </c>
+      <c r="F32" s="2" t="n">
+        <v>4.160599126274184</v>
+      </c>
+      <c r="G32" s="2" t="n">
+        <v>4.23908435777872</v>
+      </c>
+      <c r="H32" s="2" t="n">
+        <v>4.069175991861648</v>
+      </c>
+      <c r="I32" s="2" t="n">
+        <v>4.176237210273544</v>
+      </c>
+      <c r="J32" s="2" t="n">
+        <v>4.123711340206185</v>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>4.074149521287431</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>4.092490280335584</v>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>3.956478733926805</v>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>3.961965134706815</v>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>3.965107057890563</v>
+      </c>
+      <c r="F33" s="2" t="n">
+        <v>4.010427110487267</v>
+      </c>
+      <c r="G33" s="2" t="n">
+        <v>4.057618178129438</v>
+      </c>
+      <c r="H33" s="2" t="n">
+        <v>3.971405877680699</v>
+      </c>
+      <c r="I33" s="2" t="n">
+        <v>3.958828186856691</v>
+      </c>
+      <c r="J33" s="2" t="n">
+        <v>4.001600640256102</v>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>4.0453074433656955</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -3473,4 +4735,1264 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Number of Marked Items</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>0.0005 noise level</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>0.001 noise level</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>0.0015 noise level</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>0.002 noise level</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>0.0025 noise level</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>0.003 noise level</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>0.0035 noise level</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>0.004 noise level</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>0.0045000000000000005 noise level</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>0.005 noise level</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="K3" s="2" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>4.760000000000001</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>13.43</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>7.960000000000001</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>6.239999999999999</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>6.419999999999999</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>6.529999999999999</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>6.909999999999999</v>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>14.67</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>8.219999999999999</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>7.470000000000001</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>7.649999999999999</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>10.03</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>9.32</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>9.33</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>9.34</v>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>16.98</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>11.46</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>11.19</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>11.19</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>10.84</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>10.79</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="J8" s="2" t="n">
+        <v>10.86</v>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>10.639999999999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>17.69</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>13.46</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>12.21</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>12.42</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>12.58</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>19.31</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>14.23</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>14.43</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>14.44</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>13.59</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>14.62</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>14.11</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>14.26</v>
+      </c>
+      <c r="J10" s="2" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>13.919999999999998</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>32.32</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>19.53</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>15.73</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>15.68</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>15.84</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>14.73</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>15.68</v>
+      </c>
+      <c r="J11" s="2" t="n">
+        <v>16.26</v>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>15.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>33.77</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>21.82</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>17.97</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>16.81</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>17.32</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>17.14</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>17.43</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <v>16.78</v>
+      </c>
+      <c r="J12" s="2" t="n">
+        <v>17.54</v>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>17.349999999999998</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>35.83</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>22.77</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>19.74</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>18.99</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>19.07</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>18.79</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>18.31</v>
+      </c>
+      <c r="I13" s="2" t="n">
+        <v>18.36</v>
+      </c>
+      <c r="J13" s="2" t="n">
+        <v>19.57</v>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>18.740000000000002</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>36.89</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>23.35</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>21.43</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>19.77</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>19.93</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>20.61</v>
+      </c>
+      <c r="I14" s="2" t="n">
+        <v>20.21</v>
+      </c>
+      <c r="J14" s="2" t="n">
+        <v>19.87</v>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>20.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>39.46</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>25.77</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>22.45</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>21.66</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>21.56</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>21.41</v>
+      </c>
+      <c r="I15" s="2" t="n">
+        <v>22.21</v>
+      </c>
+      <c r="J15" s="2" t="n">
+        <v>21.82</v>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>20.89</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>40.14</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>27.37</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>23.92</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>22.83</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>23.66</v>
+      </c>
+      <c r="I16" s="2" t="n">
+        <v>23.39</v>
+      </c>
+      <c r="J16" s="2" t="n">
+        <v>23.77</v>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>23.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>41.49</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>29.12</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>25.85</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>24.56</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>24.68</v>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>24.26</v>
+      </c>
+      <c r="I17" s="2" t="n">
+        <v>25.26</v>
+      </c>
+      <c r="J17" s="2" t="n">
+        <v>25.02</v>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>24.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>43.14</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>31.24</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>27.89</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>26.22</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>26.81</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>27.29</v>
+      </c>
+      <c r="H18" s="2" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="I18" s="2" t="n">
+        <v>26.35</v>
+      </c>
+      <c r="J18" s="2" t="n">
+        <v>26.83</v>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>26.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>31.68</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>28.42</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>27.49</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>28.39</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>29.16</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>27.67</v>
+      </c>
+      <c r="I19" s="2" t="n">
+        <v>28.56</v>
+      </c>
+      <c r="J19" s="2" t="n">
+        <v>28.03</v>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>28.18</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>44.57</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>30.36</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>30.44</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>29.62</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>29.36</v>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="I20" s="2" t="n">
+        <v>29.85</v>
+      </c>
+      <c r="J20" s="2" t="n">
+        <v>29.53</v>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>30.09</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>44.73</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>34.53</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>31.67</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>31.64</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>31.75</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>31.92</v>
+      </c>
+      <c r="I21" s="2" t="n">
+        <v>31.27</v>
+      </c>
+      <c r="J21" s="2" t="n">
+        <v>30.73</v>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>30.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>46.52</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>35.21</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>33.85</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>33.54</v>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>33.76</v>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>32.74</v>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>32.28</v>
+      </c>
+      <c r="I22" s="2" t="n">
+        <v>33.12</v>
+      </c>
+      <c r="J22" s="2" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>32.79</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>46.39</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>37.35</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>34.34</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>34.88</v>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>33.45</v>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>34.77</v>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>34.35</v>
+      </c>
+      <c r="I23" s="2" t="n">
+        <v>33.75</v>
+      </c>
+      <c r="J23" s="2" t="n">
+        <v>33.81</v>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>33.910000000000004</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>47.75</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>36.16</v>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>35.92</v>
+      </c>
+      <c r="F24" s="2" t="n">
+        <v>35.24</v>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>36.01</v>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>36.23</v>
+      </c>
+      <c r="I24" s="2" t="n">
+        <v>35.53</v>
+      </c>
+      <c r="J24" s="2" t="n">
+        <v>35.62</v>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>35.82</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>40.28</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>36.96</v>
+      </c>
+      <c r="F25" s="2" t="n">
+        <v>37.18</v>
+      </c>
+      <c r="G25" s="2" t="n">
+        <v>37.47</v>
+      </c>
+      <c r="H25" s="2" t="n">
+        <v>38.06</v>
+      </c>
+      <c r="I25" s="2" t="n">
+        <v>38.02</v>
+      </c>
+      <c r="J25" s="2" t="n">
+        <v>37.12</v>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>37.980000000000004</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>48.48</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>40.58</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>40.26</v>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>39.44</v>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>39.47</v>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>38.55</v>
+      </c>
+      <c r="H26" s="2" t="n">
+        <v>39.38</v>
+      </c>
+      <c r="I26" s="2" t="n">
+        <v>39.19</v>
+      </c>
+      <c r="J26" s="2" t="n">
+        <v>38.93</v>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>38.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>48.56</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>42.37</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>40.58</v>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>40.63</v>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>41.08</v>
+      </c>
+      <c r="H27" s="2" t="n">
+        <v>40.76000000000001</v>
+      </c>
+      <c r="I27" s="2" t="n">
+        <v>40.28</v>
+      </c>
+      <c r="J27" s="2" t="n">
+        <v>40.25</v>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>40.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>47.79</v>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>43.81</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>42.87</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>43.22</v>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>41.45</v>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>41.99</v>
+      </c>
+      <c r="H28" s="2" t="n">
+        <v>41.96</v>
+      </c>
+      <c r="I28" s="2" t="n">
+        <v>41.37</v>
+      </c>
+      <c r="J28" s="2" t="n">
+        <v>42.13</v>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>42.34</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>48.82</v>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>45.53</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>44.2</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>43.36</v>
+      </c>
+      <c r="F29" s="2" t="n">
+        <v>44.52</v>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>44.27</v>
+      </c>
+      <c r="H29" s="2" t="n">
+        <v>44.35</v>
+      </c>
+      <c r="I29" s="2" t="n">
+        <v>43.75</v>
+      </c>
+      <c r="J29" s="2" t="n">
+        <v>43.65</v>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>42.76</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>49.54</v>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>46.51</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>45.77</v>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>44.73</v>
+      </c>
+      <c r="F30" s="2" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="G30" s="2" t="n">
+        <v>46.12</v>
+      </c>
+      <c r="H30" s="2" t="n">
+        <v>44.87</v>
+      </c>
+      <c r="I30" s="2" t="n">
+        <v>44.39</v>
+      </c>
+      <c r="J30" s="2" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>45.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>49.85</v>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>47.79</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>45.74</v>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>46.99</v>
+      </c>
+      <c r="F31" s="2" t="n">
+        <v>47.69</v>
+      </c>
+      <c r="G31" s="2" t="n">
+        <v>47.77</v>
+      </c>
+      <c r="H31" s="2" t="n">
+        <v>47.53</v>
+      </c>
+      <c r="I31" s="2" t="n">
+        <v>46.14</v>
+      </c>
+      <c r="J31" s="2" t="n">
+        <v>48.38</v>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>47.699999999999996</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>50.08000000000001</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>48.29</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>48.36</v>
+      </c>
+      <c r="F32" s="2" t="n">
+        <v>48.07</v>
+      </c>
+      <c r="G32" s="2" t="n">
+        <v>47.18</v>
+      </c>
+      <c r="H32" s="2" t="n">
+        <v>49.15</v>
+      </c>
+      <c r="I32" s="2" t="n">
+        <v>47.89</v>
+      </c>
+      <c r="J32" s="2" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>49.09</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>48.87</v>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>50.55</v>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>50.48</v>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>50.44</v>
+      </c>
+      <c r="F33" s="2" t="n">
+        <v>49.87</v>
+      </c>
+      <c r="G33" s="2" t="n">
+        <v>49.29</v>
+      </c>
+      <c r="H33" s="2" t="n">
+        <v>50.36000000000001</v>
+      </c>
+      <c r="I33" s="2" t="n">
+        <v>50.52</v>
+      </c>
+      <c r="J33" s="2" t="n">
+        <v>49.98</v>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>49.44</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>